--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2407.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2407.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.055920204713344</v>
+        <v>1.188994288444519</v>
       </c>
       <c r="B1">
-        <v>2.20331316616823</v>
+        <v>2.164887189865112</v>
       </c>
       <c r="C1">
-        <v>9.205475971499061</v>
+        <v>4.521456718444824</v>
       </c>
       <c r="D1">
-        <v>1.855390092846882</v>
+        <v>2.77139139175415</v>
       </c>
       <c r="E1">
-        <v>0.9930035747937601</v>
+        <v>1.214289546012878</v>
       </c>
     </row>
   </sheetData>
